--- a/Data Files/JDD Automatisation.xlsx
+++ b/Data Files/JDD Automatisation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhizaoui\.git\NewProject29092023\Nouveau dossier1\22_11\ANEF-AutomatizationProject\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhizaoui\git\ANEF-Transverse\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08ECFDD8-5FEA-48F7-825B-EA9C3C2F239B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAF78DD-7E08-422F-BCA2-2B9D7A3237A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -302,10 +302,10 @@
     <t>ChangementSituation</t>
   </si>
   <si>
-    <t>PertVolDeterioration</t>
-  </si>
-  <si>
     <t>Non</t>
+  </si>
+  <si>
+    <t>PerteVolDeterioration</t>
   </si>
 </sst>
 </file>
@@ -894,7 +894,7 @@
   <dimension ref="A1:L252"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,7 +959,7 @@
         <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>69</v>
@@ -997,7 +997,7 @@
         <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>69</v>
@@ -1035,7 +1035,7 @@
         <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>71</v>
@@ -1073,7 +1073,7 @@
         <v>81</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>74</v>
@@ -1111,7 +1111,7 @@
         <v>81</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>1</v>
@@ -1149,7 +1149,7 @@
         <v>81</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>78</v>
@@ -1187,7 +1187,7 @@
         <v>81</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>63</v>
@@ -1225,7 +1225,7 @@
         <v>81</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>64</v>
@@ -1263,7 +1263,7 @@
         <v>81</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>65</v>
@@ -1301,7 +1301,7 @@
         <v>81</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>66</v>
@@ -1339,7 +1339,7 @@
         <v>81</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>67</v>
@@ -1377,7 +1377,7 @@
         <v>81</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>68</v>
@@ -1415,7 +1415,7 @@
         <v>81</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>75</v>
@@ -1453,7 +1453,7 @@
         <v>81</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>76</v>
@@ -1491,7 +1491,7 @@
         <v>81</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>77</v>
@@ -1529,7 +1529,7 @@
         <v>81</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>69</v>
@@ -1567,7 +1567,7 @@
         <v>81</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>71</v>
@@ -1605,7 +1605,7 @@
         <v>81</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>74</v>
@@ -1643,7 +1643,7 @@
         <v>81</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>1</v>
@@ -1681,7 +1681,7 @@
         <v>81</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>78</v>
@@ -1719,7 +1719,7 @@
         <v>81</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>63</v>
@@ -1757,7 +1757,7 @@
         <v>81</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>64</v>
@@ -1795,7 +1795,7 @@
         <v>81</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>65</v>
@@ -1833,7 +1833,7 @@
         <v>81</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>66</v>
@@ -1871,7 +1871,7 @@
         <v>81</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>67</v>
@@ -1909,7 +1909,7 @@
         <v>81</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>68</v>
@@ -1947,7 +1947,7 @@
         <v>81</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>75</v>
@@ -1985,7 +1985,7 @@
         <v>81</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>76</v>
@@ -2023,7 +2023,7 @@
         <v>81</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>77</v>
@@ -2061,7 +2061,7 @@
         <v>81</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>78</v>
@@ -2099,7 +2099,7 @@
         <v>81</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>69</v>
@@ -2137,7 +2137,7 @@
         <v>81</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>71</v>
@@ -2175,7 +2175,7 @@
         <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>74</v>
@@ -2213,7 +2213,7 @@
         <v>81</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>78</v>
@@ -2251,7 +2251,7 @@
         <v>81</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>63</v>
@@ -2289,7 +2289,7 @@
         <v>81</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>64</v>
@@ -2327,7 +2327,7 @@
         <v>81</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>65</v>
@@ -2365,7 +2365,7 @@
         <v>81</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>66</v>
@@ -2403,7 +2403,7 @@
         <v>81</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>67</v>
@@ -2441,7 +2441,7 @@
         <v>81</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>68</v>
@@ -2479,7 +2479,7 @@
         <v>81</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>75</v>
@@ -2517,7 +2517,7 @@
         <v>81</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>76</v>
@@ -2555,7 +2555,7 @@
         <v>81</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>77</v>
@@ -2593,7 +2593,7 @@
         <v>81</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>69</v>
@@ -2631,7 +2631,7 @@
         <v>81</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>71</v>
@@ -2669,7 +2669,7 @@
         <v>81</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>74</v>
@@ -2707,7 +2707,7 @@
         <v>81</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>78</v>
@@ -2745,7 +2745,7 @@
         <v>81</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>63</v>
@@ -2783,7 +2783,7 @@
         <v>81</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>64</v>
@@ -2821,7 +2821,7 @@
         <v>81</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>65</v>
@@ -2859,7 +2859,7 @@
         <v>81</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>66</v>
@@ -2897,7 +2897,7 @@
         <v>81</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>67</v>
@@ -2935,7 +2935,7 @@
         <v>81</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>68</v>
@@ -2973,7 +2973,7 @@
         <v>81</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>75</v>
@@ -3011,7 +3011,7 @@
         <v>81</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>76</v>
@@ -3049,7 +3049,7 @@
         <v>81</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>77</v>
@@ -3087,7 +3087,7 @@
         <v>81</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>78</v>
@@ -5121,15 +5121,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A638DD4EB1C1A84A89FFB469BA74ACC8" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="51af6b70a4447e92b009e517bae45f5b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67252fe7-6b63-4403-af0d-37df51d7c3a2" xmlns:ns3="1a0cd919-d361-40f9-9afc-7bc6ff95d333" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="760a45eaac0c1eb6b3a790365277345f" ns2:_="" ns3:_="">
     <xsd:import namespace="67252fe7-6b63-4403-af0d-37df51d7c3a2"/>
@@ -5324,6 +5315,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -5336,14 +5336,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71DB8EA9-1E02-4059-870F-414FF031F625}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5358,6 +5350,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
